--- a/funcionarios.xlsx
+++ b/funcionarios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>banana</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -451,10 +448,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -470,7 +467,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">

--- a/funcionarios.xlsx
+++ b/funcionarios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -31,16 +31,43 @@
     <t>Comunicação</t>
   </si>
   <si>
-    <t>func1755382364785</t>
-  </si>
-  <si>
-    <t>VIctor Ribeiro</t>
-  </si>
-  <si>
-    <t>func1755382401524</t>
-  </si>
-  <si>
-    <t>banana</t>
+    <t>func1755392144424</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>func1755392192670</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>func1755392440344</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>func1755392481692</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>func1755403563482</t>
+  </si>
+  <si>
+    <t>Josué</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>func1755403572907</t>
+  </si>
+  <si>
+    <t>Moisés</t>
   </si>
 </sst>
 </file>
@@ -417,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -448,16 +475,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -468,16 +495,96 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
